--- a/DatiRuns.xlsx
+++ b/DatiRuns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\Computer Engineering\Anno 1 - Secondo Semestre\Big Data Computing (Francesco Silvestri)\BDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8BCF8-07B1-4659-ABAB-4BBE667F0519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA853A-369B-40FB-917C-243EACA3BEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{024BFD4D-E3AB-4070-A348-CB2B959987BC}"/>
+    <workbookView xWindow="5436" yWindow="1044" windowWidth="17280" windowHeight="9024" xr2:uid="{024BFD4D-E3AB-4070-A348-CB2B959987BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3293F5A-B8BB-4800-9C68-43922E863786}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,17 +472,17 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.90666401189952395</v>
+        <v>0.91699441782848101</v>
       </c>
       <c r="C2">
-        <v>0.89390895933734504</v>
+        <v>0.932994843711903</v>
       </c>
       <c r="D2">
-        <v>0.92007985363742095</v>
+        <v>0.89679597419019996</v>
       </c>
       <c r="E2" s="1">
         <f>SUM(B2, C2, D2)/3</f>
-        <v>0.90688427495809665</v>
+        <v>0.91559507857686129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,17 +490,17 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3">
         <v>78</v>
       </c>
-      <c r="C3">
-        <v>63</v>
-      </c>
       <c r="D3">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E5" si="0">SUM(B3, C3, D3)/3</f>
-        <v>78.333333333333329</v>
+        <v>72.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -508,17 +508,17 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.76226312001379803</v>
+        <v>0.77382518641654896</v>
       </c>
       <c r="C4">
-        <v>0.77385878036579203</v>
+        <v>0.77762569193573094</v>
       </c>
       <c r="D4">
-        <v>0.78449009583261597</v>
+        <v>0.77595752111321703</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.77353733207073538</v>
+        <v>0.77580279982183231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,17 +561,17 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.92696488370923602</v>
+        <v>0.92638228136211698</v>
       </c>
       <c r="C8">
-        <v>0.91194141523044903</v>
+        <v>0.92358998342951304</v>
       </c>
       <c r="D8">
-        <v>0.91203910223857598</v>
+        <v>0.90523634411427001</v>
       </c>
       <c r="E8" s="1">
         <f>SUM(B8, C8, D8)/3</f>
-        <v>0.91698180039275368</v>
+        <v>0.91840286963530005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,14 +582,14 @@
         <v>78</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>78</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ref="E9:E11" si="1">SUM(B9, C9, D9)/3</f>
-        <v>78</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,17 +597,17 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.82590738241593598</v>
+        <v>0.83002308179091999</v>
       </c>
       <c r="C10">
-        <v>0.83220439571702598</v>
+        <v>0.84174028926830502</v>
       </c>
       <c r="D10">
-        <v>0.81629589726364604</v>
+        <v>0.82838596076925697</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>0.82480255846553607</v>
+        <v>0.83338311060949399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,17 +668,17 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C15">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D15">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(B15, C15, D15)/3</f>
-        <v>218.66666666666666</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,17 +704,17 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1">
         <f>SUM(B17, C17, D17)/3</f>
-        <v>99</v>
+        <v>67.666666666666671</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>0.46195048146790901</v>
+        <v>0.47503137840791598</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>59533</v>
+        <v>47161</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>0.48804731544697799</v>
+        <v>0.45425835989819902</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>-0.32201647230151098</v>
+        <v>0.62599368991458004</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>982151</v>
+        <v>212035</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>0.53715236098804597</v>
+        <v>0.522202221123656</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>444401</v>
+        <v>6842</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/DatiRuns.xlsx
+++ b/DatiRuns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\Computer Engineering\Anno 1 - Secondo Semestre\Big Data Computing (Francesco Silvestri)\BDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA853A-369B-40FB-917C-243EACA3BEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B94D52-E5B5-4EFE-A18D-C9233280A2B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5436" yWindow="1044" windowWidth="17280" windowHeight="9024" xr2:uid="{024BFD4D-E3AB-4070-A348-CB2B959987BC}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3293F5A-B8BB-4800-9C68-43922E863786}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>0.62599368991458004</v>
+        <v>0.62606064061614197</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>212035</v>
+        <v>160821</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>0.522202221123656</v>
+        <v>0.52945705843311497</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>6842</v>
+        <v>6749</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
